--- a/OER-Summary-LZ.xlsx
+++ b/OER-Summary-LZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12913\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\CV_paper_code\ML-NP-design_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3521BE3B-9BC3-4064-BAC9-775EB0A1C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A946099-82BA-4B1D-9741-5A3409F3B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="56">
   <si>
     <t>material</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,37 +234,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相对Ru的斜率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对Ru的斜率，数字越小，性能越稳定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mass Activity数字越大，活性越高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ru</t>
   </si>
   <si>
+    <t>Elemental proportions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope relative to Ru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Ru:Li</t>
-  </si>
-  <si>
-    <t>Elemental proportions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,22 +299,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -369,7 +346,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,12 +382,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -744,23 +715,23 @@
     <col min="4" max="4" width="13.1328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -771,21 +742,13 @@
       <c r="D2" s="6">
         <v>0.99999998895781639</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>53</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>1.394981537</v>
@@ -793,19 +756,11 @@
       <c r="D3" s="6">
         <v>1.6253101557502974</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3">
         <v>0.80576702899999997</v>
@@ -814,10 +769,10 @@
         <v>0.41439205497755666</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>1.7930999459999999</v>
@@ -826,12 +781,12 @@
         <v>1.629032240076443</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3">
         <v>1.4624011050000001</v>
@@ -840,10 +795,10 @@
         <v>0.93424316586257528</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3">
         <v>1.7299303450000001</v>
@@ -852,10 +807,10 @@
         <v>1.2580645022372527</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3">
         <v>1.2807486370000001</v>
@@ -864,12 +819,12 @@
         <v>1.1674937836343739</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3">
         <v>1.4257513610000001</v>
@@ -878,10 +833,10 @@
         <v>0.99875929418243437</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3">
         <v>1.160275304</v>
@@ -890,10 +845,10 @@
         <v>0.76674937118601827</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3">
         <v>1.819489983</v>
@@ -902,12 +857,12 @@
         <v>0.84119105770893232</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>1.994205617</v>
@@ -916,10 +871,10 @@
         <v>1.1662530888589919</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3">
         <v>2.0694663200000001</v>
@@ -928,10 +883,10 @@
         <v>0.9044664912534095</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3">
         <v>2.2142471530000001</v>
@@ -940,12 +895,12 @@
         <v>1.027295274016218</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>1.7852910289999999</v>
@@ -954,10 +909,10 @@
         <v>1.2843672314753494</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3">
         <v>1.323696524</v>
@@ -967,9 +922,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3">
         <v>2.070085792</v>
@@ -979,11 +934,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>0.48960734099999997</v>
@@ -993,9 +948,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>1.481078315</v>
@@ -1005,9 +960,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <v>1.837964368</v>
@@ -1017,11 +972,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4">
         <v>0.3</v>
@@ -1031,9 +986,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3">
         <v>0.99772711438306427</v>
@@ -1043,9 +998,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
         <v>1.2888777065753239</v>
@@ -1055,11 +1010,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>1.6176315787801705</v>
@@ -1069,9 +1024,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3">
         <v>1.6226179505783089</v>
@@ -1081,9 +1036,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3">
         <v>1.6852866462529204</v>
@@ -1093,11 +1048,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3">
         <v>1.1749270990367902</v>
@@ -1107,9 +1062,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
         <v>1.1909190173153479</v>
@@ -1119,9 +1074,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3">
         <v>1.2550490584307314</v>
@@ -1131,11 +1086,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3">
         <v>0.84533050180640734</v>
@@ -1145,9 +1100,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3">
         <v>1.20549123396068</v>
@@ -1157,9 +1112,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3">
         <v>0.94435236143157941</v>
@@ -1169,11 +1124,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3">
         <v>1.4318002046554668</v>
@@ -1183,9 +1138,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3">
         <v>1.3890791934573332</v>
@@ -1195,9 +1150,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>1.7383659967144851</v>
@@ -1207,11 +1162,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3">
         <v>2.2468689014997207</v>
@@ -1221,9 +1176,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3">
         <v>2.5855757852886647</v>
@@ -1233,9 +1188,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
         <v>1.9365082021125746</v>
@@ -1245,11 +1200,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3">
         <v>0.83557545126137522</v>
@@ -1259,9 +1214,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3">
         <v>3.3094979723861826</v>
@@ -1271,9 +1226,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3">
         <v>2.4078659452345201</v>
@@ -1283,11 +1238,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3">
         <v>0.63658504980325026</v>
@@ -1297,9 +1252,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3">
         <v>1.0799794379366023</v>
@@ -1309,9 +1264,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3">
         <v>1.8428623119293639</v>
@@ -1321,11 +1276,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="3">
         <v>0.21057498899999999</v>
@@ -1335,9 +1290,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="14"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3">
         <v>0.35176228199999998</v>
@@ -1347,9 +1302,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3">
         <v>0.24624710999999999</v>
@@ -1359,11 +1314,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3">
         <v>1.8662875230397054</v>
@@ -1373,9 +1328,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
         <v>1.8403149777777645</v>
@@ -1385,9 +1340,9 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3">
         <v>1.3008197539817001</v>
@@ -1397,11 +1352,11 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3">
         <v>1.803380245</v>
@@ -1411,9 +1366,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="14"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3">
         <v>3.0043497769999998</v>
@@ -1423,9 +1378,9 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="3">
         <v>3.40261557</v>
@@ -1435,11 +1390,11 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3">
         <v>2.541218035</v>
@@ -1449,9 +1404,9 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="3">
         <v>2.353950524</v>
@@ -1461,9 +1416,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3">
         <v>2.6139104209999999</v>
@@ -1473,11 +1428,11 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3">
         <v>2.265135592</v>
@@ -1487,9 +1442,9 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="14"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3">
         <v>3.1883567429999999</v>
@@ -1499,9 +1454,9 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3">
         <v>1.492821709</v>
@@ -1511,11 +1466,11 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3">
         <v>1.7009845240000001</v>
@@ -1525,9 +1480,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="14"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" s="3">
         <v>1.6319063</v>
@@ -1537,9 +1492,9 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C62" s="3">
         <v>2.0763698310000001</v>
@@ -1549,11 +1504,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C63" s="3">
         <v>2.6360047500000001</v>
@@ -1563,9 +1518,9 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" s="3">
         <v>2.4617933340000002</v>
@@ -1575,9 +1530,9 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C65" s="3">
         <v>2.549816844</v>
@@ -1587,11 +1542,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C66" s="3">
         <v>2.7322997148969055</v>
@@ -1601,9 +1556,9 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="14"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C67" s="3">
         <v>1.6060594345940138</v>
@@ -1613,9 +1568,9 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3">
         <v>0.88194634572502673</v>
@@ -1625,11 +1580,11 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3">
         <v>1.736576307</v>
@@ -1639,9 +1594,9 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="14"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3">
         <v>1.9874472999999999</v>
@@ -1651,9 +1606,9 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="14"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C71" s="3">
         <v>1.616767303</v>
@@ -1663,11 +1618,11 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="3">
         <v>0.86285705499999998</v>
@@ -1677,9 +1632,9 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="14"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="3">
         <v>1.490766442</v>
@@ -1689,9 +1644,9 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="14"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="3">
         <v>0.58664574000000003</v>
@@ -1701,11 +1656,11 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="3">
         <v>3.8330181529999998</v>
@@ -1715,9 +1670,9 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="14"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3">
         <v>2.3506635739999999</v>
@@ -1727,9 +1682,9 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="14"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C77" s="3">
         <v>2.1770756549999999</v>
@@ -1739,11 +1694,11 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="3">
         <v>2.3106308169999998</v>
@@ -1753,9 +1708,9 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="14"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="3">
         <v>2.9165415160000001</v>
@@ -1765,9 +1720,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="14"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="3">
         <v>2.2684221330000001</v>
@@ -1777,11 +1732,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="3">
         <v>2.1596966549999999</v>
@@ -1791,9 +1746,9 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="14"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="3">
         <v>3.7448314790000001</v>
@@ -1803,9 +1758,9 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="14"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="3">
         <v>2.2546928639999999</v>
@@ -1815,11 +1770,11 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="3">
         <v>2.490791362</v>
@@ -1829,9 +1784,9 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="14"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C85" s="3">
         <v>1.003206528</v>
@@ -1841,9 +1796,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="14"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C86" s="3">
         <v>2.3889492300000001</v>
@@ -1853,11 +1808,11 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C87" s="3">
         <v>3.8534296170000002</v>
@@ -1867,9 +1822,9 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="14"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C88" s="3">
         <v>2.4348176640000001</v>
@@ -1879,9 +1834,9 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="14"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C89" s="3">
         <v>3.8054754079999999</v>
@@ -1891,11 +1846,11 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C90" s="3">
         <v>1.777970163</v>
@@ -1905,9 +1860,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="14"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C91" s="3">
         <v>1.685398843</v>
@@ -1917,9 +1872,9 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="14"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C92" s="3">
         <v>2.3305937129999998</v>
@@ -1929,11 +1884,11 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C93" s="3">
         <v>0.37967815999999999</v>
@@ -1943,9 +1898,9 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="14"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C94" s="3">
         <v>1.8021588639999999</v>
@@ -1955,9 +1910,9 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="14"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C95" s="3">
         <v>2.1652373310000002</v>
@@ -1967,11 +1922,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C96" s="3">
         <v>1.206335634</v>
@@ -1981,9 +1936,9 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="14"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C97" s="3">
         <v>1.3697596540000001</v>
@@ -1993,9 +1948,9 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="14"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C98" s="3">
         <v>1.678937167</v>
@@ -2005,11 +1960,11 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C99" s="3">
         <v>0.971425914</v>
@@ -2019,9 +1974,9 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="14"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C100" s="3">
         <v>0.81837038399999995</v>
@@ -2031,9 +1986,9 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="14"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C101" s="3">
         <v>0.57935110999999995</v>
@@ -2043,11 +1998,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C102" s="3">
         <v>2.889446628</v>
@@ -2057,9 +2012,9 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="14"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C103" s="3">
         <v>2.325041347</v>
@@ -2069,9 +2024,9 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="14"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" s="3">
         <v>2.000511774</v>
@@ -2081,11 +2036,11 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C105" s="3">
         <v>2.4075889620000002</v>
@@ -2095,9 +2050,9 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="14"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C106" s="3">
         <v>2.4092631990000002</v>
@@ -2107,9 +2062,9 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="14"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C107" s="3">
         <v>2.5270246799999998</v>
@@ -2119,11 +2074,11 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C108" s="3">
         <v>3.0121885129999999</v>
@@ -2133,9 +2088,9 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="14"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C109" s="3">
         <v>1.987440688</v>
@@ -2145,9 +2100,9 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="14"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C110" s="3">
         <v>1.7085425380000001</v>
@@ -2157,11 +2112,11 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C111" s="3">
         <v>1.112400542</v>
@@ -2171,9 +2126,9 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="14"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C112" s="3">
         <v>1.241840228</v>
@@ -2183,9 +2138,9 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="14"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C113" s="3">
         <v>1.6530363640000001</v>
@@ -2195,11 +2150,11 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C114" s="3">
         <v>2.3625583529999998</v>
@@ -2209,9 +2164,9 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="14"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C115" s="3">
         <v>1.8543375529999999</v>
@@ -2221,9 +2176,9 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="14"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C116" s="3">
         <v>2.8933047539999999</v>
@@ -2233,11 +2188,11 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C117" s="3">
         <v>1.931704278</v>
@@ -2247,9 +2202,9 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="14"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" s="3">
         <v>1.947123961</v>
@@ -2259,9 +2214,9 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="14"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C119" s="3">
         <v>1.028038695</v>
@@ -2271,11 +2226,11 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C120" s="3">
         <v>1.308159023</v>
@@ -2285,9 +2240,9 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="14"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C121" s="3">
         <v>1.509198034</v>
@@ -2297,9 +2252,9 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="14"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C122" s="3">
         <v>1.692048861</v>
@@ -2309,11 +2264,11 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C123" s="3">
         <v>1.1135824649999999</v>
@@ -2323,9 +2278,9 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="14"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C124" s="3">
         <v>1.8887138889999999</v>
@@ -2335,9 +2290,9 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="14"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C125" s="3">
         <v>1.8648389240000001</v>
@@ -2347,11 +2302,11 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C126" s="3">
         <v>2.1976662557971451</v>
@@ -2361,9 +2316,9 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="14"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C127" s="3">
         <v>2.0171537367605903</v>
@@ -2373,9 +2328,9 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="14"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C128" s="3">
         <v>2.7553169117517502</v>
@@ -2385,11 +2340,11 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C129" s="3">
         <v>0.60643243672650349</v>
@@ -2399,9 +2354,9 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="14"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C130" s="3">
         <v>0.43826940283532534</v>
@@ -2411,9 +2366,9 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="14"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C131" s="3">
         <v>0.88921211996325422</v>
@@ -2423,11 +2378,11 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C132" s="3">
         <v>3.000900350921603</v>
@@ -2437,9 +2392,9 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="14"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C133" s="3">
         <v>2.234582871336332</v>
@@ -2449,9 +2404,9 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="14"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C134" s="3">
         <v>2.9725431559101088</v>
@@ -2461,11 +2416,11 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C135" s="3">
         <v>1.6714459779999999</v>
@@ -2475,9 +2430,9 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="14"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C136" s="3">
         <v>0.82833168599999996</v>
@@ -2487,9 +2442,9 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="14"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C137" s="3">
         <v>1.6388647750000001</v>
@@ -2499,11 +2454,11 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C138" s="3">
         <v>1.8623778039730017</v>
@@ -2513,9 +2468,9 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="14"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C139" s="3">
         <v>0.96261093451421087</v>
@@ -2525,9 +2480,9 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="14"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C140" s="3">
         <v>1.5985603033492715</v>
@@ -2537,11 +2492,11 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C141" s="3">
         <v>1.519240205</v>
@@ -2551,9 +2506,9 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="14"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C142" s="3">
         <v>1.5107515579999999</v>
@@ -2563,9 +2518,9 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="14"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C143" s="3">
         <v>1.576954083</v>
@@ -2575,11 +2530,11 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C144" s="3">
         <v>1.493925412541514</v>
@@ -2589,9 +2544,9 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="14"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C145" s="5">
         <v>1.5810841492904701</v>
@@ -2601,9 +2556,9 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="14"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C146" s="3">
         <v>1.294474972570183</v>
@@ -2613,7 +2568,43 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="48">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="A111:A113"/>
     <mergeCell ref="A114:A116"/>
@@ -2626,44 +2617,6 @@
     <mergeCell ref="A135:A137"/>
     <mergeCell ref="A138:A140"/>
     <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
